--- a/myproj/Report.xlsx
+++ b/myproj/Report.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\Workplace\GitRepos\AutomatePyramid\myproj\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
   <si>
     <t>Sno.</t>
   </si>
@@ -60,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,14 +134,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -178,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,10 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,51 +421,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/myproj/Report.xlsx
+++ b/myproj/Report.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\Workplace\GitRepos\AutomatePyramid\myproj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sno.</t>
   </si>
@@ -65,22 +55,53 @@
   </si>
   <si>
     <t>isSubmitted</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>8/3/2020</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>EMC-QA</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
+  <si>
+    <t>Testing BOP</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>QA &amp; Testing</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>8/4/2020</t>
+  </si>
+  <si>
+    <t>8/5/2020</t>
+  </si>
+  <si>
+    <t>8/6/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,7 +146,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -134,6 +155,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +241,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,67 +452,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="F5" t="s">
         <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>